--- a/CollectionsIMP.xlsx
+++ b/CollectionsIMP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Java-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFB6A828-8984-48BC-AFA9-2842DE6DFF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9C002A-D41C-4C59-B014-869AE3D42988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EE89781A-D524-4CC3-A6A1-C0C14AEF8FF2}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{EE89781A-D524-4CC3-A6A1-C0C14AEF8FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t xml:space="preserve">Set </t>
   </si>
@@ -94,19 +94,46 @@
   </si>
   <si>
     <t>LinkedList</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>TreehMap</t>
+  </si>
+  <si>
+    <t>If we are having duplicate keys then the latest value(value which is added last)of the key will be printed</t>
+  </si>
+  <si>
+    <t>We cannot add null at the key if we added null value to key, we will get nullPointerException</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Collection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -192,9 +219,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -203,6 +229,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A3A7B-2C0C-4481-BDE5-772EA563F8FF}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,142 +565,203 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CollectionsIMP.xlsx
+++ b/CollectionsIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Java-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9C002A-D41C-4C59-B014-869AE3D42988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C859954-6B8D-496B-8CCC-F51AD8ACD1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{EE89781A-D524-4CC3-A6A1-C0C14AEF8FF2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t xml:space="preserve">Set </t>
   </si>
@@ -42,45 +42,24 @@
     <t>Printing Order</t>
   </si>
   <si>
-    <t>Duplicate values</t>
-  </si>
-  <si>
-    <t>Null values</t>
-  </si>
-  <si>
     <t>Does not follows insertion order</t>
   </si>
   <si>
-    <t>Duplicate values are allowed but 1 value will be printed</t>
-  </si>
-  <si>
-    <t>Adding multiple null values is allowed but 1 value will be printed</t>
-  </si>
-  <si>
     <t>LinkedHashSet</t>
   </si>
   <si>
     <t>Follows insertion order</t>
   </si>
   <si>
-    <t>Adding multiple null values is allowed but 1 value will be printed(last)</t>
-  </si>
-  <si>
     <t>TreeSet</t>
   </si>
   <si>
-    <t>Adding multiple null values is allowed but will get nullPointerException</t>
-  </si>
-  <si>
     <t>PriorityQueue</t>
   </si>
   <si>
     <t>Sorted elements</t>
   </si>
   <si>
-    <t>Duplicate values are allowed and all values will be printed</t>
-  </si>
-  <si>
     <t>Deque</t>
   </si>
   <si>
@@ -90,9 +69,6 @@
     <t>List</t>
   </si>
   <si>
-    <t>Adding multiple null values is and all null values will be printed</t>
-  </si>
-  <si>
     <t>LinkedList</t>
   </si>
   <si>
@@ -105,23 +81,61 @@
     <t>TreehMap</t>
   </si>
   <si>
-    <t>If we are having duplicate keys then the latest value(value which is added last)of the key will be printed</t>
-  </si>
-  <si>
-    <t>We cannot add null at the key if we added null value to key, we will get nullPointerException</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
     <t>Collection</t>
+  </si>
+  <si>
+    <t>Duplicate values are allowed</t>
+  </si>
+  <si>
+    <t>1. If we are having duplicate keys then the latest value(value which is added last)of the key will be printed</t>
+  </si>
+  <si>
+    <t>Duplicate values while printing</t>
+  </si>
+  <si>
+    <t>Duplicate values are not allowed</t>
+  </si>
+  <si>
+    <t>Null values while printing</t>
+  </si>
+  <si>
+    <t>Duplicate null values are allowed</t>
+  </si>
+  <si>
+    <t>Duplicate null values are not allowed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>2. We cannot add null at the key if we added null value to key, we will get nullPointerExceptio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Null value will generates nullPointerException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +145,12 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Fira Code"/>
       <family val="3"/>
@@ -219,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -229,11 +249,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,73 +574,73 @@
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,125 +662,126 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>26</v>
+      <c r="A16" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="10"/>

--- a/CollectionsIMP.xlsx
+++ b/CollectionsIMP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Java-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C859954-6B8D-496B-8CCC-F51AD8ACD1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45A6A8-9326-4E9A-8922-D937188072B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{EE89781A-D524-4CC3-A6A1-C0C14AEF8FF2}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{EE89781A-D524-4CC3-A6A1-C0C14AEF8FF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -212,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,11 +236,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -257,6 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,6 +283,1053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>TreehMap</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorted elements</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Duplicate values are not allowed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Null values while printing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duplicate null values are allowed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Duplicate null values are allowed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Null value will generates nullPointerException</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Duplicate null values are not allowed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Duplicate null values are not allowed</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Duplicate null values are not allowed</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Null value will generates nullPointerException</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Null value will generates nullPointerException</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Null value will generates nullPointerException</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Duplicate null values are not allowed</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Duplicate null values are not allowed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1184-4A99-875E-6D604F91890A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="346914632"/>
+        <c:axId val="346913320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="346914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346913320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="346913320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3E85E28D-E002-49E3-BCCB-B80BC56072BB}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BAE1ED-2DDD-43ED-9775-D4BA2DABCD78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369BC4D4-EFD4-42E1-8341-474CC890556E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3105150" y="4572000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B03FA1-970C-4D2E-9A55-DF24D25F8898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3105150" y="4572000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25835BBE-7C10-496A-940A-921793AED3D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4547" t="11673" r="4156" b="16776"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="3429000"/>
+          <a:ext cx="7648575" cy="3371851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A3A7B-2C0C-4481-BDE5-772EA563F8FF}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +1640,7 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="53.140625" customWidth="1"/>
   </cols>
@@ -639,8 +1697,8 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,10 +1759,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -715,10 +1773,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -779,16 +1837,20 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CollectionsIMP.xlsx
+++ b/CollectionsIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Java-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF45A6A8-9326-4E9A-8922-D937188072B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D22D93-29D9-4044-9524-B6638FA606EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{EE89781A-D524-4CC3-A6A1-C0C14AEF8FF2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t xml:space="preserve">Set </t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Null value will generates nullPointerException</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -268,6 +274,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14:$C$14</c:f>
+              <c:f>Sheet1!$A$19:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -368,43 +375,46 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>Sheet1!$D$2:$D$18</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Null values while printing</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Duplicate null values are allowed</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Duplicate null values are allowed</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Null value will generates nullPointerException</c:v>
+                  <c:v>Duplicate null values are allowed</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Duplicate null values are not allowed</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Duplicate null values are not allowed</c:v>
+                  <c:v>Null value will generates nullPointerException</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Duplicate null values are not allowed</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Null value will generates nullPointerException</c:v>
+                  <c:v>Duplicate null values are not allowed</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Null value will generates nullPointerException</c:v>
+                  <c:v>Duplicate null values are not allowed</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Null value will generates nullPointerException</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>Null value will generates nullPointerException</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Null value will generates nullPointerException</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Duplicate null values are not allowed</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>Null value will generates nullPointerException</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Duplicate null values are not allowed</c:v>
                 </c:pt>
               </c:strCache>
@@ -412,7 +422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14</c:f>
+              <c:f>Sheet1!$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1188,13 +1198,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1236,13 +1246,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1283,15 +1293,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2638425</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>2589557</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1319,8 +1329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="3429000"/>
-          <a:ext cx="7648575" cy="3371851"/>
+          <a:off x="8282" y="4339496"/>
+          <a:ext cx="7650232" cy="3371851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A3A7B-2C0C-4481-BDE5-772EA563F8FF}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,23 +1669,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1689,7 +1685,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1697,44 +1693,30 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>21</v>
@@ -1745,83 +1727,69 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
+      <c r="A10" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
+      <c r="A11" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
+      <c r="A13" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
+      <c r="A14" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -1829,21 +1797,80 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="13"/>
